--- a/South German Credit/Performance_metrics/model_perf_metrics_merged_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_merged_testing.xlsx
@@ -502,10 +502,10 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8546637744034706</v>
+        <v>0.8476821192052981</v>
       </c>
       <c r="H2" t="n">
-        <v>0.669094063830906</v>
+        <v>0.6736158578263842</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>740</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8183908045977012</v>
+        <v>0.8240740740740742</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6621010568378989</v>
+        <v>0.6785845733214154</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>740</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8165137614678898</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6566065513433934</v>
+        <v>0.6778747568221253</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:3_iteration:1</t>
+          <t>LR_sample:20_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -632,16 +632,16 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8221709006928407</v>
+        <v>0.8237986270022885</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6730900678269099</v>
+        <v>0.6668857458331143</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:3_iteration:2</t>
+          <t>LR_sample:20_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -666,16 +666,16 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8156682027649769</v>
+        <v>0.8237986270022885</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6597087123402913</v>
+        <v>0.6668857458331143</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8240740740740742</v>
+        <v>0.8248847926267282</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6785845733214154</v>
+        <v>0.6754824123245176</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>744</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8119266055045871</v>
+        <v>0.8192219679633866</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6487197013512803</v>
+        <v>0.6589988958410011</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LR_sample:22_cf:3_iteration:1</t>
+          <t>LR_sample:22_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -768,16 +768,16 @@
         <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8175519630484989</v>
+        <v>0.8192219679633866</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6652032178347967</v>
+        <v>0.6589988958410011</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LR_sample:22_cf:3_iteration:2</t>
+          <t>LR_sample:22_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -802,16 +802,16 @@
         <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8202764976958525</v>
+        <v>0.8192219679633866</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6675955623324044</v>
+        <v>0.6589988958410011</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>

--- a/South German Credit/Performance_metrics/model_perf_metrics_merged_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_merged_testing.xlsx
@@ -502,10 +502,10 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8532731376975169</v>
+        <v>0.8590604026845637</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7049003627950996</v>
+        <v>0.7065828907934171</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>740</v>
       </c>
       <c r="G4" t="n">
-        <v>0.836027713625866</v>
+        <v>0.8232558139534883</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6967506178032493</v>
+        <v>0.6816867343183133</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8267898383371826</v>
+        <v>0.8325581395348837</v>
       </c>
       <c r="H5" t="n">
-        <v>0.680976917819023</v>
+        <v>0.6974604343025396</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>744</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8341013824884793</v>
+        <v>0.8240740740740742</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6912561123087438</v>
+        <v>0.6785845733214154</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.832183908045977</v>
+        <v>0.8352668213457076</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6857616068142384</v>
+        <v>0.6998527788001472</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
